--- a/TCR_Arenathon.xlsx
+++ b/TCR_Arenathon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="14508" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="14508" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="173">
   <si>
     <t>Date</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>A 1-2 paragraph summary of the game, as it it were going on the WEBSITE GALLERY</t>
-  </si>
-  <si>
-    <t>GameNameExtraOrdinare_Installable_executible</t>
   </si>
   <si>
     <t>Marketing Materials</t>
@@ -915,6 +912,12 @@
   </si>
   <si>
     <t>Luc Kadletz, Gonzalo Rojo</t>
+  </si>
+  <si>
+    <t>Waived for Unity</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2505,7 @@
     <row r="1" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="25"/>
       <c r="B1" s="100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
@@ -2510,10 +2513,10 @@
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="101"/>
       <c r="D2" s="101"/>
@@ -2521,10 +2524,10 @@
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="103"/>
       <c r="D3" s="103"/>
@@ -2532,10 +2535,10 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
@@ -2543,10 +2546,10 @@
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="103"/>
@@ -2554,10 +2557,10 @@
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="105"/>
       <c r="D6" s="105"/>
@@ -2565,7 +2568,7 @@
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="96"/>
     </row>
@@ -2573,7 +2576,7 @@
       <c r="A9" s="36"/>
       <c r="B9" s="37">
         <f>TCRs!F2</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>5</v>
@@ -2601,13 +2604,13 @@
       <c r="A11" s="36"/>
       <c r="B11" s="42">
         <f>TCRs!F4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="93"/>
     </row>
@@ -2618,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="95"/>
     </row>
@@ -2629,10 +2632,10 @@
       <c r="A13" s="36"/>
       <c r="B13" s="44">
         <f>TCRs!F6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>7</v>
@@ -2646,16 +2649,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="99"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="97"/>
       <c r="C15" s="31"/>
@@ -2666,10 +2669,10 @@
       <c r="A16" s="36"/>
       <c r="B16" s="37">
         <f>DCRs!F2</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="90" t="s">
         <v>6</v>
@@ -2683,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="93"/>
     </row>
@@ -2697,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="92" t="s">
         <v>4</v>
@@ -2708,13 +2711,13 @@
       <c r="A19" s="36"/>
       <c r="B19" s="42">
         <f>DCRs!F5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="93"/>
     </row>
@@ -2722,13 +2725,13 @@
       <c r="A20" s="36"/>
       <c r="B20" s="43">
         <f>DCRs!F6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="95"/>
     </row>
@@ -2739,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="92" t="s">
         <v>7</v>
@@ -2753,10 +2756,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="89"/>
     </row>
@@ -2849,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2878,27 +2881,27 @@
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="60"/>
       <c r="H1" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="74" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>63</v>
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="17">
         <f t="shared" ref="F2:F7" si="0">COUNTIF(F$9:F$19,G2)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>5</v>
@@ -2910,13 +2913,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="69" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>78</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="17">
@@ -2938,10 +2941,10 @@
       <c r="E4" s="56"/>
       <c r="F4" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="63">
         <f t="shared" si="1"/>
@@ -2959,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5" s="63">
         <f t="shared" si="1"/>
@@ -2974,10 +2977,10 @@
       <c r="E6" s="55"/>
       <c r="F6" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="63">
         <f t="shared" si="1"/>
@@ -2995,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="77">
         <f t="shared" si="1"/>
@@ -3004,7 +3007,7 @@
     </row>
     <row r="8" spans="1:8" s="20" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="81" t="s">
         <v>10</v>
@@ -3016,31 +3019,31 @@
         <v>9</v>
       </c>
       <c r="E8" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="G8" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="H8" s="83" t="s">
         <v>60</v>
-      </c>
-      <c r="H8" s="83" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="78" t="s">
         <v>5</v>
@@ -3061,7 +3064,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="15" t="s">
@@ -3074,14 +3077,14 @@
     </row>
     <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="15" t="s">
@@ -3097,15 +3100,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="16"/>
+        <v>144</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>171</v>
+      </c>
       <c r="F12" s="15" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>5</v>
@@ -3117,21 +3122,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="15" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3139,15 +3144,15 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>5</v>
@@ -3159,22 +3164,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>11</v>
       </c>
@@ -3183,11 +3188,11 @@
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="15" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>5</v>
@@ -3203,11 +3208,11 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>5</v>
@@ -3223,11 +3228,11 @@
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="15" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>5</v>
@@ -3236,20 +3241,20 @@
     </row>
     <row r="19" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="15" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>5</v>
@@ -3311,8 +3316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3341,30 +3346,30 @@
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="60"/>
       <c r="H1" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="62">
         <f>COUNTIF($F$10:$F$25,$G2)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="63">
         <f>COUNTIF($G$10:$G$25,$G2)</f>
@@ -3381,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" s="63">
         <f t="shared" ref="H3:H8" si="1">COUNTIF($G$10:$G$25,$G3)</f>
@@ -3398,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="63">
         <f t="shared" si="1"/>
@@ -3412,10 +3417,10 @@
       <c r="E5" s="56"/>
       <c r="F5" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="63">
         <f t="shared" si="1"/>
@@ -3430,10 +3435,10 @@
       <c r="E6" s="55"/>
       <c r="F6" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" s="63">
         <f t="shared" si="1"/>
@@ -3451,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="63">
         <f t="shared" si="1"/>
@@ -3469,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="77">
         <f t="shared" si="1"/>
@@ -3478,7 +3483,7 @@
     </row>
     <row r="9" spans="1:9" s="20" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="81" t="s">
         <v>10</v>
@@ -3490,476 +3495,476 @@
         <v>9</v>
       </c>
       <c r="E9" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="G9" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="H9" s="108" t="s">
         <v>60</v>
-      </c>
-      <c r="H9" s="108" t="s">
-        <v>61</v>
       </c>
       <c r="I9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="78" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G10" s="86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" s="110"/>
       <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>103</v>
-      </c>
       <c r="D11" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="15" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="107"/>
       <c r="I11" s="107"/>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="15" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="107"/>
       <c r="I12" s="107"/>
     </row>
     <row r="13" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="15" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="107"/>
       <c r="I13" s="107"/>
     </row>
     <row r="14" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>103</v>
-      </c>
       <c r="D14" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="107"/>
       <c r="I14" s="107"/>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="107"/>
       <c r="I15" s="107"/>
     </row>
     <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="107"/>
       <c r="I16" s="107"/>
     </row>
     <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>103</v>
-      </c>
       <c r="D17" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="107"/>
       <c r="I17" s="107"/>
     </row>
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="107"/>
       <c r="I18" s="107"/>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="107"/>
       <c r="I19" s="107"/>
     </row>
     <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>103</v>
-      </c>
       <c r="D20" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="107"/>
       <c r="I20" s="107"/>
     </row>
     <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="107"/>
       <c r="I21" s="107"/>
     </row>
     <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="107"/>
       <c r="I22" s="107"/>
     </row>
     <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="107"/>
       <c r="I23" s="107"/>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H24" s="107"/>
       <c r="I24" s="107"/>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="107"/>
       <c r="I25" s="107"/>
     </row>
     <row r="26" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>103</v>
-      </c>
       <c r="D26" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" s="107"/>
       <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" s="107"/>
       <c r="I27" s="107"/>
     </row>
     <row r="28" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" s="107"/>
       <c r="I28" s="107"/>
@@ -4118,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4321,15 +4326,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>16</v>
@@ -4342,10 +4347,10 @@
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="49" t="s">
         <v>151</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -4362,7 +4367,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>21</v>
@@ -4374,7 +4379,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47" t="s">
         <v>20</v>
@@ -4385,19 +4390,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
@@ -4408,7 +4413,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>25</v>
@@ -4420,7 +4425,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>20</v>
@@ -4431,17 +4436,17 @@
     </row>
     <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
@@ -4453,7 +4458,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
@@ -4463,22 +4468,22 @@
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>20</v>
@@ -4486,22 +4491,22 @@
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>20</v>
@@ -4509,22 +4514,22 @@
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>20</v>
@@ -4532,31 +4537,31 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="4"/>
@@ -4566,10 +4571,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="4"/>
@@ -4583,17 +4588,17 @@
     </row>
     <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>20</v>
@@ -4604,17 +4609,17 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>20</v>
@@ -4626,7 +4631,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="4"/>
@@ -4636,19 +4641,19 @@
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>20</v>
@@ -4659,19 +4664,19 @@
     </row>
     <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
@@ -4682,19 +4687,19 @@
     </row>
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
@@ -4706,7 +4711,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4"/>
@@ -4716,22 +4721,22 @@
     </row>
     <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>20</v>
@@ -4739,17 +4744,17 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
